--- a/data/georgia_census/samegrelo/martvili/age_dependency.xlsx
+++ b/data/georgia_census/samegrelo/martvili/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{148C72FE-39E9-4D6B-8808-28F7936D0508}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020F5CAC-414F-4ABC-98E2-1376492BCD95}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F593559-DFDC-44A9-887E-88B29E95ED28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C923A7-3B25-43E7-A153-F6DADDECAE01}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E21252-6151-43E5-A3C9-5971EC92032D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15C9BC9-8AFF-4CEC-9B96-9838312B8481}"/>
 </file>